--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27565</v>
+        <v>28128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52075</v>
+        <v>52624</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03766722623299109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02671764373782971</v>
+        <v>0.02726333223910272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05047359445799849</v>
+        <v>0.05100581924702716</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -765,19 +765,19 @@
         <v>92751</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76769</v>
+        <v>74949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112056</v>
+        <v>110838</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07052722367529898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0583746513753689</v>
+        <v>0.05699070423669399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.085206601259388</v>
+        <v>0.0842804168224268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -786,19 +786,19 @@
         <v>131613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110537</v>
+        <v>111074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154917</v>
+        <v>152616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05608121317001048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04710032322937832</v>
+        <v>0.04732936179921348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06601091089499214</v>
+        <v>0.06503070024353201</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>992861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>979648</v>
+        <v>979099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1004158</v>
+        <v>1003595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9623327737670089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9495264055420015</v>
+        <v>0.9489941807529725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9732823562621704</v>
+        <v>0.9727366677608973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1200</v>
@@ -836,19 +836,19 @@
         <v>1222362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1203057</v>
+        <v>1204275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1238344</v>
+        <v>1240164</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.929472776324701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9147933987406119</v>
+        <v>0.9157195831775732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9416253486246311</v>
+        <v>0.9430092957633059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2197</v>
@@ -857,19 +857,19 @@
         <v>2215222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2191918</v>
+        <v>2194219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2236298</v>
+        <v>2235761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9439187868299895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9339890891050059</v>
+        <v>0.934969299756468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9528996767706209</v>
+        <v>0.9526706382007867</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12309</v>
+        <v>12944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32083</v>
+        <v>31536</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01206440912424175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007273001857794305</v>
+        <v>0.007648162695470513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01895707919885945</v>
+        <v>0.01863415797635484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>39241</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27419</v>
+        <v>28217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52607</v>
+        <v>53801</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0247158531843963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01726965011846035</v>
+        <v>0.01777246788781619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03313472715778172</v>
+        <v>0.03388650998555583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>59658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45255</v>
+        <v>45842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76623</v>
+        <v>76233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01818817248425768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01379692097443257</v>
+        <v>0.01397579938734885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02336031076312228</v>
+        <v>0.02324121657080754</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1671976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1660311</v>
+        <v>1660858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1680085</v>
+        <v>1679450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879355908757582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810429208011404</v>
+        <v>0.9813658420236453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927269981422057</v>
+        <v>0.9923518373045295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1517</v>
@@ -1053,19 +1053,19 @@
         <v>1548432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1535066</v>
+        <v>1533872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1560254</v>
+        <v>1559456</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9752841468156037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.966865272842218</v>
+        <v>0.9661134900144441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9827303498815395</v>
+        <v>0.9822275321121838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3145</v>
@@ -1074,19 +1074,19 @@
         <v>3220409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3203444</v>
+        <v>3203834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3234812</v>
+        <v>3234225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9818118275157424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9766396892368777</v>
+        <v>0.9767587834291925</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9862030790255675</v>
+        <v>0.9860242006126513</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>5644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2651</v>
+        <v>1990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12320</v>
+        <v>11368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01023512622788337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004807443384846892</v>
+        <v>0.003609139623436192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02234267845376461</v>
+        <v>0.02061676295455261</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>8680</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3683</v>
+        <v>3988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16355</v>
+        <v>15779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01822000300001993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00773136828645025</v>
+        <v>0.008369863315546809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03433006127072715</v>
+        <v>0.03312013043384673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1220,19 +1220,19 @@
         <v>14324</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7854</v>
+        <v>8050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23435</v>
+        <v>23479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0139362507384282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007641334845531559</v>
+        <v>0.007832329928335293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02280061215389041</v>
+        <v>0.02284327228909552</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>545764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539088</v>
+        <v>540040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548757</v>
+        <v>549418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9897648737721166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776573215462354</v>
+        <v>0.9793832370454474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9951925566151532</v>
+        <v>0.9963908603765638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -1270,19 +1270,19 @@
         <v>467732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>460057</v>
+        <v>460633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472729</v>
+        <v>472424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9817799969999801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9656699387292731</v>
+        <v>0.9668798695661529</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9922686317135501</v>
+        <v>0.9916301366844531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>965</v>
@@ -1291,19 +1291,19 @@
         <v>1013496</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1004385</v>
+        <v>1004341</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1019966</v>
+        <v>1019770</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9860637492615718</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9771993878461094</v>
+        <v>0.9771567277109044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923586651544684</v>
+        <v>0.9921676700716647</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>64924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01982082335587168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -1416,19 +1416,19 @@
         <v>140672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04162886767141676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>203</v>
@@ -1437,19 +1437,19 @@
         <v>205596</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03089471638371498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3210601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3193536</v>
+        <v>3192036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3226070</v>
+        <v>3225137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9801791766441283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9749691212192364</v>
+        <v>0.9745113253826811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9849017260600111</v>
+        <v>0.9846168669949139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3161</v>
@@ -1487,19 +1487,19 @@
         <v>3238525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3212131</v>
+        <v>3210218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3260844</v>
+        <v>3260312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9583711323285833</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.950560314827845</v>
+        <v>0.9499943394674798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.964976001986498</v>
+        <v>0.9648185868898776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6307</v>
@@ -1508,19 +1508,19 @@
         <v>6449126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6418774</v>
+        <v>6418502</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6476735</v>
+        <v>6477120</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.969105283616285</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9645442327398741</v>
+        <v>0.9645034654135275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9732540211752821</v>
+        <v>0.9733118186391676</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>25770</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16927</v>
+        <v>16629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38262</v>
+        <v>37824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02655070617047897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01744004903066857</v>
+        <v>0.01713326114424403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03942103579529661</v>
+        <v>0.03897032980295913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -1872,19 +1872,19 @@
         <v>134996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113659</v>
+        <v>114358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158609</v>
+        <v>159094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1013032100294168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08529169079404662</v>
+        <v>0.08581623552042673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1190230128995017</v>
+        <v>0.1193870920826397</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -1893,19 +1893,19 @@
         <v>160766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137293</v>
+        <v>135801</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186743</v>
+        <v>186317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0698015406155572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05961026019111335</v>
+        <v>0.05896251570424475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08108067077002759</v>
+        <v>0.08089537986803134</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>944820</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>932328</v>
+        <v>932766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>953663</v>
+        <v>953961</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9734492938295211</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9605789642047029</v>
+        <v>0.9610296701970409</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9825599509693315</v>
+        <v>0.9828667388557559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1118</v>
@@ -1943,19 +1943,19 @@
         <v>1197595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1173982</v>
+        <v>1173497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1218932</v>
+        <v>1218233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8986967899705832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8809769871004984</v>
+        <v>0.8806129079173605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9147083092059534</v>
+        <v>0.9141837644795734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2000</v>
@@ -1964,19 +1964,19 @@
         <v>2142415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2116438</v>
+        <v>2116864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2165888</v>
+        <v>2167380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9301984593844428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9189193292299724</v>
+        <v>0.9191046201319687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9403897398088867</v>
+        <v>0.9410374842957553</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>33993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22795</v>
+        <v>24292</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46552</v>
+        <v>48123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0173432145652047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0116298236308819</v>
+        <v>0.01239354810674406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02375057725418102</v>
+        <v>0.02455236272555764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2089,19 +2089,19 @@
         <v>74526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58962</v>
+        <v>60331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94208</v>
+        <v>94126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04256612247555291</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03367660870884694</v>
+        <v>0.03445842474064197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05380759316191466</v>
+        <v>0.05376082164859561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -2110,19 +2110,19 @@
         <v>108519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89701</v>
+        <v>89648</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133433</v>
+        <v>130476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02924374011930189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0241725178458305</v>
+        <v>0.02415831634294438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03595739160954064</v>
+        <v>0.03516063670581886</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1926029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1913470</v>
+        <v>1911899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1937227</v>
+        <v>1935730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9826567854347953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762494227458192</v>
+        <v>0.9754476372744424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9883701763691189</v>
+        <v>0.9876064518932559</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1559</v>
@@ -2160,19 +2160,19 @@
         <v>1676309</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1656627</v>
+        <v>1656709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1691873</v>
+        <v>1690504</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9574338775244471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9461924068380853</v>
+        <v>0.9462391783514039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.966323391291153</v>
+        <v>0.9655415752593579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3381</v>
@@ -2181,19 +2181,19 @@
         <v>3602338</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3577424</v>
+        <v>3580381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3621156</v>
+        <v>3621209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9707562598806981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9640426083904593</v>
+        <v>0.9648393632941811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9758274821541695</v>
+        <v>0.9758416836570556</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>9229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3136</v>
+        <v>3974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19568</v>
+        <v>21678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01921283968645793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006529480404621552</v>
+        <v>0.008274006350613025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04073843730763273</v>
+        <v>0.04513044071126802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2306,19 +2306,19 @@
         <v>12328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5809</v>
+        <v>5859</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22215</v>
+        <v>22734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02693775915952407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01269273566539622</v>
+        <v>0.01280142396731416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04854142205486243</v>
+        <v>0.04967479868843624</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2327,19 +2327,19 @@
         <v>21557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12269</v>
+        <v>12133</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36388</v>
+        <v>36699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02298191713304694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01307985055203324</v>
+        <v>0.01293476694061143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03879386956552622</v>
+        <v>0.0391252554541768</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>471103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460764</v>
+        <v>458654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477196</v>
+        <v>476358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807871603135421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9592615626923666</v>
+        <v>0.9548695592887317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934705195953782</v>
+        <v>0.991725993649387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>401</v>
@@ -2377,19 +2377,19 @@
         <v>445326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435439</v>
+        <v>434920</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>451845</v>
+        <v>451795</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.973062240840476</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9514585779451376</v>
+        <v>0.9503252013115637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9873072643346037</v>
+        <v>0.9871985760326858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -2398,19 +2398,19 @@
         <v>916429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>901598</v>
+        <v>901287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>925717</v>
+        <v>925853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.977018082866953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9612061304344739</v>
+        <v>0.9608747445458233</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869201494479668</v>
+        <v>0.9870652330593885</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>68991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51915</v>
+        <v>52074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91202</v>
+        <v>87281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02022650446344283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01522005010951632</v>
+        <v>0.01526685453482036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02673813244557422</v>
+        <v>0.02558848213750024</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -2523,19 +2523,19 @@
         <v>221850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193243</v>
+        <v>193362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258015</v>
+        <v>254162</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06265042099347241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05457170281462408</v>
+        <v>0.0546053839267259</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07286342813180458</v>
+        <v>0.07177515329266053</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>263</v>
@@ -2544,19 +2544,19 @@
         <v>290842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256100</v>
+        <v>256116</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>327708</v>
+        <v>326688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04183553225291035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03683819531325761</v>
+        <v>0.03684051993624423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04713852268480512</v>
+        <v>0.04699174478529203</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3341953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3319742</v>
+        <v>3323663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3359029</v>
+        <v>3358870</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9797734955365571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9732618675544258</v>
+        <v>0.9744115178624998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9847799498904837</v>
+        <v>0.9847331454651796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3078</v>
@@ -2594,19 +2594,19 @@
         <v>3319230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3283065</v>
+        <v>3286918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3347837</v>
+        <v>3347718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373495790065276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9271365718681953</v>
+        <v>0.9282248467073395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9454282971853758</v>
+        <v>0.9453946160732748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6213</v>
@@ -2615,19 +2615,19 @@
         <v>6661182</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6624316</v>
+        <v>6625336</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6695924</v>
+        <v>6695908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9581644677470896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9528614773151948</v>
+        <v>0.9530082552147079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9631618046867423</v>
+        <v>0.9631594800637557</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>43901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31512</v>
+        <v>32254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57705</v>
+        <v>58420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05819788378164259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04177351054825879</v>
+        <v>0.04275805938546073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07649717191390025</v>
+        <v>0.07744392889902396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -2979,19 +2979,19 @@
         <v>150490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129414</v>
+        <v>126011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178351</v>
+        <v>175585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1512976174405669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1301084674405945</v>
+        <v>0.1266870554656493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1793080490893115</v>
+        <v>0.1765275564292395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -3000,19 +3000,19 @@
         <v>194391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168858</v>
+        <v>168810</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223271</v>
+        <v>221187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1111436980537864</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09654489584341649</v>
+        <v>0.09651773213348279</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1276561140209671</v>
+        <v>0.1264644216273766</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>710446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>696642</v>
+        <v>695927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>722835</v>
+        <v>722093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9418021162183574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9235028280860996</v>
+        <v>0.9225560711009754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9582264894517412</v>
+        <v>0.9572419406145393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -3050,19 +3050,19 @@
         <v>844170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>816309</v>
+        <v>819075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>865246</v>
+        <v>868649</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8487023825594331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8206919509106885</v>
+        <v>0.8234724435707604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8698915325594054</v>
+        <v>0.87331294453435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1476</v>
@@ -3071,19 +3071,19 @@
         <v>1554616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1525736</v>
+        <v>1527820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1580149</v>
+        <v>1580197</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8888563019462136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8723438859790331</v>
+        <v>0.8735355783726235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9034551041565836</v>
+        <v>0.9034822678665173</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>34760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24306</v>
+        <v>24302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47397</v>
+        <v>48673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01674042813489243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01170606378325076</v>
+        <v>0.01170413824791323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02282656267526944</v>
+        <v>0.02344122224314264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -3196,19 +3196,19 @@
         <v>96179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77852</v>
+        <v>76496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118019</v>
+        <v>117759</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04837273007079829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03915499583662545</v>
+        <v>0.0384729134109803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05935673077446333</v>
+        <v>0.05922594102642391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -3217,19 +3217,19 @@
         <v>130939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110113</v>
+        <v>109259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155088</v>
+        <v>155730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03221383075287065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02709021631626776</v>
+        <v>0.02688005275198865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0381549835057429</v>
+        <v>0.03831281827328087</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2041625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2028988</v>
+        <v>2027712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2052079</v>
+        <v>2052083</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9832595718651076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9771734373247306</v>
+        <v>0.9765587777568573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9882939362167492</v>
+        <v>0.9882958617520867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1821</v>
@@ -3267,19 +3267,19 @@
         <v>1892121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1870281</v>
+        <v>1870541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1910448</v>
+        <v>1911804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9516272699292017</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9406432692255366</v>
+        <v>0.9407740589735761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9608450041633744</v>
+        <v>0.9615270865890196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3741</v>
@@ -3288,19 +3288,19 @@
         <v>3933746</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3909597</v>
+        <v>3908955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3954572</v>
+        <v>3955426</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9677861692471293</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9618450164942571</v>
+        <v>0.9616871817267189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9729097836837324</v>
+        <v>0.9731199472480113</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>10310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5389</v>
+        <v>4846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19556</v>
+        <v>18992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01885282636486284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009853600135973946</v>
+        <v>0.008861650611516805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0357580125960153</v>
+        <v>0.03472684757494943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3413,19 +3413,19 @@
         <v>18833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11146</v>
+        <v>11116</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29570</v>
+        <v>30127</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03429564461793022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02029767364876152</v>
+        <v>0.02024331271328937</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05384755014290041</v>
+        <v>0.05486128374828822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3434,19 +3434,19 @@
         <v>29143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19578</v>
+        <v>20570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41464</v>
+        <v>42522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02659011572862234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01786254299690683</v>
+        <v>0.01876784427241445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03783139742644887</v>
+        <v>0.03879693918165856</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>536576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527330</v>
+        <v>527894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541497</v>
+        <v>542040</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9811471736351371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9642419874039846</v>
+        <v>0.9652731524250502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9901463998640259</v>
+        <v>0.9911383493884832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>509</v>
@@ -3484,19 +3484,19 @@
         <v>530307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>519570</v>
+        <v>519013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537994</v>
+        <v>538024</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9657043553820698</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9461524498570997</v>
+        <v>0.9451387162517118</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9797023263512386</v>
+        <v>0.9797566872867106</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1001</v>
@@ -3505,19 +3505,19 @@
         <v>1066884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054563</v>
+        <v>1053505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1076449</v>
+        <v>1075457</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9734098842713776</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.962168602573552</v>
+        <v>0.9612030608183414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9821374570030934</v>
+        <v>0.9812321557275855</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>88971</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72946</v>
+        <v>71108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109065</v>
+        <v>109223</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02634143713450858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02159692740732534</v>
+        <v>0.02105276628151619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03229049047110066</v>
+        <v>0.03233722053528645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -3630,19 +3630,19 @@
         <v>265502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>233072</v>
+        <v>236210</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>299847</v>
+        <v>298862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07516839737878322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0659868980039755</v>
+        <v>0.06687519020302003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0848921066766706</v>
+        <v>0.08461325200159003</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>323</v>
@@ -3651,19 +3651,19 @@
         <v>354474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>318327</v>
+        <v>319570</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>393612</v>
+        <v>396277</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05130073673810003</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04606946694737532</v>
+        <v>0.04624934279061284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0569649602515892</v>
+        <v>0.05735074617895774</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3288647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3268553</v>
+        <v>3268395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3304672</v>
+        <v>3306510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9736585628654915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9677095095288993</v>
+        <v>0.9676627794647136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9784030725926746</v>
+        <v>0.9789472337184838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3088</v>
@@ -3701,19 +3701,19 @@
         <v>3266598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3232253</v>
+        <v>3233238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3299028</v>
+        <v>3295890</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9248316026212168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9151078933233294</v>
+        <v>0.91538674799841</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9340131019960246</v>
+        <v>0.93312480979698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6218</v>
@@ -3722,19 +3722,19 @@
         <v>6555244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6516106</v>
+        <v>6513441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6591391</v>
+        <v>6590148</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9486992632619</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9430350397484107</v>
+        <v>0.9426492538210431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9539305330526247</v>
+        <v>0.9537506572093872</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>63293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51300</v>
+        <v>50907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79178</v>
+        <v>78222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1096838465092839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0889015370829901</v>
+        <v>0.08822067388858082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1372129178618201</v>
+        <v>0.1355558717299228</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>323</v>
@@ -4086,19 +4086,19 @@
         <v>177500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159692</v>
+        <v>159503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195637</v>
+        <v>196065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.216709655418169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1949675894134547</v>
+        <v>0.194736931562464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2388522041708701</v>
+        <v>0.239375644633762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>414</v>
@@ -4107,19 +4107,19 @@
         <v>240793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218354</v>
+        <v>218052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>265286</v>
+        <v>264861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.172473463816072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1564007955615485</v>
+        <v>0.1561844368803267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1900169006580969</v>
+        <v>0.1897128868997156</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>513754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497869</v>
+        <v>498825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>525747</v>
+        <v>526140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.890316153490716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8627870821381798</v>
+        <v>0.8644441282700773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.91109846291701</v>
+        <v>0.9117793261114193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1099</v>
@@ -4157,19 +4157,19 @@
         <v>641570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>623433</v>
+        <v>623005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>659378</v>
+        <v>659567</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7832903445818309</v>
+        <v>0.783290344581831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7611477958291299</v>
+        <v>0.760624355366238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8050324105865453</v>
+        <v>0.8052630684375359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1697</v>
@@ -4178,19 +4178,19 @@
         <v>1155324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1130831</v>
+        <v>1131256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1177763</v>
+        <v>1178065</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.827526536183928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8099830993419032</v>
+        <v>0.8102871131002845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8435992044384515</v>
+        <v>0.8438155631196732</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>90828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74875</v>
+        <v>74206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114402</v>
+        <v>114492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04071975556263208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03356760513572944</v>
+        <v>0.03326799924798284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05128844394520738</v>
+        <v>0.05132866084624259</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>267</v>
@@ -4303,19 +4303,19 @@
         <v>167539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146654</v>
+        <v>146449</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>189390</v>
+        <v>188530</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07718192527763346</v>
+        <v>0.07718192527763344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06756053792593147</v>
+        <v>0.06746591602907932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08724814085901667</v>
+        <v>0.08685184542637449</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>367</v>
@@ -4324,19 +4324,19 @@
         <v>258368</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230868</v>
+        <v>233296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290508</v>
+        <v>289776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0587028903036021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05245473507908378</v>
+        <v>0.0530064185533408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06600545395871633</v>
+        <v>0.06583912851828906</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2139738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2116164</v>
+        <v>2116074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2155691</v>
+        <v>2156360</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9592802444373679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9487115560547925</v>
+        <v>0.948671339153758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9664323948642705</v>
+        <v>0.9667320007520172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2653</v>
@@ -4374,19 +4374,19 @@
         <v>2003168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1981317</v>
+        <v>1982177</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2024053</v>
+        <v>2024258</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9228180747223665</v>
+        <v>0.9228180747223664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9127518591409833</v>
+        <v>0.9131481545736256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9324394620740687</v>
+        <v>0.9325340839709206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4545</v>
@@ -4395,19 +4395,19 @@
         <v>4142906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4110766</v>
+        <v>4111498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4170406</v>
+        <v>4167978</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9412971096963979</v>
+        <v>0.941297109696398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9339945460412835</v>
+        <v>0.9341608714817109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.947545264920916</v>
+        <v>0.9469935814466591</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>27651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18864</v>
+        <v>18344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40032</v>
+        <v>39141</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03885754671326679</v>
+        <v>0.03885754671326677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02650917895249108</v>
+        <v>0.02577936296161306</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05625799372651569</v>
+        <v>0.05500589132366303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -4520,19 +4520,19 @@
         <v>41521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31507</v>
+        <v>32279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53162</v>
+        <v>53051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05655480187246908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04291497717180628</v>
+        <v>0.04396638287709893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07241170269489162</v>
+        <v>0.07225964346583293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -4541,19 +4541,19 @@
         <v>69171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54934</v>
+        <v>55195</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85677</v>
+        <v>83723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04784438455498231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03799700621948068</v>
+        <v>0.03817743547879086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05926112888369264</v>
+        <v>0.05790980522798155</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>683936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671555</v>
+        <v>672446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>692723</v>
+        <v>693243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9611424532867333</v>
+        <v>0.9611424532867331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9437420062734844</v>
+        <v>0.944994108676337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9734908210475089</v>
+        <v>0.9742206370383869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>940</v>
@@ -4591,19 +4591,19 @@
         <v>692648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>681007</v>
+        <v>681118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>702662</v>
+        <v>701890</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.943445198127531</v>
+        <v>0.9434451981275308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9275882973051083</v>
+        <v>0.9277403565341671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9570850228281936</v>
+        <v>0.9560336171229011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1591</v>
@@ -4612,19 +4612,19 @@
         <v>1376585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1360079</v>
+        <v>1362033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1390822</v>
+        <v>1390561</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9521556154450176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9407388711163072</v>
+        <v>0.9420901947720184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9620029937805193</v>
+        <v>0.9618225645212091</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>181771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159137</v>
+        <v>159461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212906</v>
+        <v>210351</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05165132821835771</v>
+        <v>0.05165132821835772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04521966754640878</v>
+        <v>0.04531157856267914</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06049848705154395</v>
+        <v>0.05977236671610327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>653</v>
@@ -4737,19 +4737,19 @@
         <v>386561</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>354866</v>
+        <v>358445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>415408</v>
+        <v>418382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1038040167996522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09529289068386577</v>
+        <v>0.09625407703672006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1115505623705639</v>
+        <v>0.1123491273245272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>874</v>
@@ -4758,19 +4758,19 @@
         <v>568332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>528887</v>
+        <v>528468</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>610495</v>
+        <v>611239</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07846478766107677</v>
+        <v>0.07846478766107676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07301895854111902</v>
+        <v>0.07296108757275906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08428589988518355</v>
+        <v>0.08438863945604649</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3337429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3306294</v>
+        <v>3308849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3360063</v>
+        <v>3359739</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9483486717816422</v>
+        <v>0.9483486717816423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9395015129484561</v>
+        <v>0.9402276332838965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9547803324535911</v>
+        <v>0.9546884214373208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4692</v>
@@ -4808,19 +4808,19 @@
         <v>3337386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3308539</v>
+        <v>3305565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3369081</v>
+        <v>3365502</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8961959832003479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8884494376294361</v>
+        <v>0.8876508726754728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9047071093161341</v>
+        <v>0.9037459229632799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7833</v>
@@ -4829,19 +4829,19 @@
         <v>6674815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6632652</v>
+        <v>6631908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6714260</v>
+        <v>6714679</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9215352123389231</v>
+        <v>0.9215352123389234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9157141001148169</v>
+        <v>0.9156113605439531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9269810414588809</v>
+        <v>0.92703891242724</v>
       </c>
     </row>
     <row r="15">
